--- a/data/listados/Lejano/L_L_Raices del Manglar.xlsx
+++ b/data/listados/Lejano/L_L_Raices del Manglar.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2ef5c481a427bbc/Trabajo/Value Creation Analytics SAS/Clientes/ICESI/Producto 3. TrabajoCampoyAnalisis/3. Listados/Lejano/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/listados/Lejano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{AFF11D13-5A3B-463D-BF36-0F424C10E0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65FAE2D7-2430-4252-8013-6C4AA25D90D8}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{AFF11D13-5A3B-463D-BF36-0F424C10E0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19A7030C-AACF-48D5-9AAA-B8BF62190E80}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="6098" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="-11640" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="lejano" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,18 +747,18 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="62" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
@@ -870,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
@@ -898,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
@@ -967,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>52</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>54</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>56</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>58</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>60</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>63</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>65</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="2:16" ht="28.5">
+    <row r="33" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>67</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>70</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>72</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>74</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>76</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>78</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>80</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>82</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>84</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>86</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>88</v>
       </c>
@@ -1388,14 +1388,14 @@
       </c>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>90</v>
       </c>
